--- a/updated_game/Results of running Fuzzy.xlsx
+++ b/updated_game/Results of running Fuzzy.xlsx
@@ -8,13 +8,59 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\KE_Project_Work\KE5207\Fuzzy_snake\updated_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C2E9DE-C02C-4CF2-BD30-6772C7162C30}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFBAD47-BCA4-4898-B688-FD02CF5B9E8E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="16485" windowHeight="5385" xr2:uid="{2B9151D7-8F1A-40CF-8CE2-51B272761B9F}"/>
+    <workbookView xWindow="2835" yWindow="0" windowWidth="16485" windowHeight="5385" activeTab="1" xr2:uid="{2B9151D7-8F1A-40CF-8CE2-51B272761B9F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="No Bricks" sheetId="1" r:id="rId1"/>
+    <sheet name="Bricks" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Bricks!$E$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Bricks!$E$3:$E$52</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Bricks!$N$26:$N$48</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Bricks!$O$25</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Bricks!$O$26:$O$48</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Bricks!$P$25</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Bricks!$P$26:$P$48</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Bricks!$Q$25</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Bricks!$Q$26:$Q$48</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Bricks!$F$2</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Bricks!$F$3:$F$52</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Bricks!$G$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Bricks!$F$2</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Bricks!$G$3:$G$52</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Bricks!$F$2</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Bricks!$F$3:$F$52</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Bricks!$E$2</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Bricks!$E$3:$E$52</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Bricks!$L$26:$L$48</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Bricks!$M$25</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Bricks!$M$26:$M$48</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Bricks!$N$25</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Bricks!$N$26:$N$48</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Bricks!$F$3:$F$52</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Bricks!$O$25</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Bricks!$O$26:$O$48</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Bricks!$P$25</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Bricks!$P$26:$P$48</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Bricks!$Q$25</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Bricks!$Q$26:$Q$48</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Bricks!$E$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Bricks!$E$3:$E$52</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Bricks!$L$26:$L$48</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Bricks!$M$25</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Bricks!$M$26:$M$48</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Bricks!$N$25</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Bricks!#REF!</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="25">
   <si>
     <t>https://i.imgur.com/sLWuSkj.png</t>
   </si>
@@ -91,12 +137,27 @@
   <si>
     <t>Confidence Level(95.0%)</t>
   </si>
+  <si>
+    <t>Brick Layout 1</t>
+  </si>
+  <si>
+    <t>Brick Layout 2</t>
+  </si>
+  <si>
+    <t>Brick Layout 3</t>
+  </si>
+  <si>
+    <t>Tuned Fuzzy Based</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +173,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -121,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -149,19 +225,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -179,6 +394,2096 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Horizontal Bricks</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Horizontal Bricks</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{DA00830C-8389-4B9C-AD24-A69768C305D1}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>Brick Layout 1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="5"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Vertical Bricks</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Vertical Bricks</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{84EFCC37-8510-44DF-A79F-A32B95FFCE37}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Brick Layout 2</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r" underflow="0" overflow="auto">
+              <cx:binSize val="5"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.20</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>L-shaped Bricks</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>L-shaped Bricks</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{B89BDA7C-82B5-4200-B980-5F0E123FD192}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.19</cx:f>
+              <cx:v>Brick Layout 3</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="5"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>551088</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>111579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>187779</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82136A24-C2A1-4AF7-93F5-9BCB93EA6E98}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7000874" y="5050972"/>
+              <a:ext cx="5667376" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-SG" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>585107</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>62593</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2517CB16-842A-472B-A9D1-1B01B106690C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7034893" y="8164286"/>
+              <a:ext cx="5667376" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-SG" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>805544</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>621849</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Chart 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{381E94EB-D431-43F1-8F79-56B5C6983F92}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13079187" y="5037364"/>
+              <a:ext cx="5667376" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-SG" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,8 +2785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30348069-67C2-4C5F-857C-A279222C78F1}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,18 +2900,18 @@
       <c r="F7">
         <v>7</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="5" t="s">
+      <c r="L7" s="15"/>
+      <c r="M7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="5"/>
+      <c r="N7" s="16"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1499,4 +3804,1776 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D53556-669C-4FFE-9147-FF0D5891360B}">
+  <dimension ref="A1:V52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="21"/>
+    </row>
+    <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="18"/>
+      <c r="S3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="18"/>
+      <c r="U3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="18"/>
+    </row>
+    <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="14">
+        <v>2.7</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="14">
+        <v>15.92</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="14">
+        <v>16.16</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="14">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.7751234266428878</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0.61411957886299073</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0.38571428571428573</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="7">
+        <v>1.2407502667699877</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="7">
+        <v>1.1217187977494578</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" s="7">
+        <v>1.0148127403413811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="7">
+        <v>6</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="7">
+        <v>14</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="7">
+        <v>3</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" s="7">
+        <v>9</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7" s="7">
+        <v>19</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="V7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="7">
+        <v>5.4809503123573942</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="7">
+        <v>4.3424811867344753</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="7">
+        <v>2.7274118702909691</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="7">
+        <v>8.7734292739207618</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="7">
+        <v>7.9317496847306312</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" s="7">
+        <v>7.1758097032989374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="7">
+        <v>30.040816326530614</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="7">
+        <v>18.857142857142858</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="7">
+        <v>7.4387755102040813</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9" s="7">
+        <v>76.973061224489797</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T9" s="7">
+        <v>62.912653061224475</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="V9" s="7">
+        <v>51.492244897959182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1.0733154257597235</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="7">
+        <v>4.5300942207373485</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="7">
+        <v>5.5282326530352339</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0.90948694914875006</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" s="7">
+        <v>-0.58249057250532221</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" s="7">
+        <v>-0.99897958234042639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1.1035938773033926</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2.2240138022338005</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7">
+        <v>1.9702927101649188</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0.56515440158237562</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T11" s="7">
+        <v>-1.7718439382019051E-2</v>
+      </c>
+      <c r="U11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="V11" s="7">
+        <v>0.59681325489604198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="7">
+        <v>23</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="7">
+        <v>17</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" s="7">
+        <v>44</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T12" s="7">
+        <v>34</v>
+      </c>
+      <c r="U12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="V12" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>19</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T13" s="7">
+        <v>1</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="V13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="7">
+        <v>23</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="7">
+        <v>17</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="7">
+        <v>44</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T14" s="7">
+        <v>35</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="V14" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>31</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="7">
+        <v>340</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="7">
+        <v>140</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="7">
+        <v>135</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="7">
+        <v>796</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="T15" s="7">
+        <v>808</v>
+      </c>
+      <c r="U15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V15" s="7">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7">
+        <v>50</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="7">
+        <v>50</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="7">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="7">
+        <v>50</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T16" s="7">
+        <v>50</v>
+      </c>
+      <c r="U16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V16" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1.5576688439003095</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="9">
+        <v>1.2341194983193029</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0.77512187717842074</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="9">
+        <v>2.4933810115624642</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17" s="9">
+        <v>2.2541783189796916</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="V17" s="9">
+        <v>2.0393425533133036</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>24</v>
+      </c>
+      <c r="G21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>22</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>19</v>
+      </c>
+      <c r="F24">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>21</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>19</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>26</v>
+      </c>
+      <c r="F29">
+        <v>21</v>
+      </c>
+      <c r="G29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>14</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>27</v>
+      </c>
+      <c r="F31">
+        <v>25</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>19</v>
+      </c>
+      <c r="F32">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>23</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>13</v>
+      </c>
+      <c r="F34">
+        <v>30</v>
+      </c>
+      <c r="G34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>11</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>14</v>
+      </c>
+      <c r="F36">
+        <v>14</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>23</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>17</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>21</v>
+      </c>
+      <c r="F38">
+        <v>24</v>
+      </c>
+      <c r="G38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>18</v>
+      </c>
+      <c r="F39">
+        <v>11</v>
+      </c>
+      <c r="G39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>12</v>
+      </c>
+      <c r="F40">
+        <v>18</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>23</v>
+      </c>
+      <c r="F41">
+        <v>21</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
+      </c>
+      <c r="F42">
+        <v>15</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>27</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>14</v>
+      </c>
+      <c r="F44">
+        <v>18</v>
+      </c>
+      <c r="G44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>29</v>
+      </c>
+      <c r="F45">
+        <v>25</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>11</v>
+      </c>
+      <c r="F46">
+        <v>21</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>14</v>
+      </c>
+      <c r="F47">
+        <v>15</v>
+      </c>
+      <c r="G47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>30</v>
+      </c>
+      <c r="F48">
+        <v>13</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>35</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>21</v>
+      </c>
+      <c r="F50">
+        <v>23</v>
+      </c>
+      <c r="G50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>22</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>44</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>9</v>
+      </c>
+      <c r="F52">
+        <v>26</v>
+      </c>
+      <c r="G52">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>